--- a/AO_final_randomized_trials.xlsx
+++ b/AO_final_randomized_trials.xlsx
@@ -481,29 +481,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>robot_right_3</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_3.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -517,33 +517,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>human_right</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>human_right_4</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>waving</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_4_f.mp4</t>
+          <t>./stimuli/obj_1.mp4</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_1</t>
         </is>
       </c>
     </row>
@@ -553,29 +543,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>human_right_0</t>
+          <t>robot_left_2</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_0_f.mp4</t>
+          <t>./stimuli/robot_left_2.mp4</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -589,29 +579,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>human_right_3</t>
+          <t>control_1</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>Landscape 2</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_3_f.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -625,29 +615,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>robot_right_3</t>
+          <t>human_left_4</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_3.mp4</t>
+          <t>./stimuli/human_left_4_f.mp4</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -661,33 +651,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>human_right</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>human_right_4</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>waving</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_4_m.mp4</t>
+          <t>./stimuli/obj_2.mp4</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_2</t>
         </is>
       </c>
     </row>
@@ -697,12 +677,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>human_left_2</t>
+          <t>robot_left_2</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -715,11 +695,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_2_m.mp4</t>
+          <t>./stimuli/robot_left_2.mp4</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -733,29 +713,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>human_right_0</t>
+          <t>robot_left_1</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_0_f.mp4</t>
+          <t>./stimuli/robot_left_1.mp4</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -805,29 +785,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>human_left_3</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/human_left_3_m.mp4</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -841,29 +821,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>human_right_0</t>
+          <t>robot_left_4</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_0_m.mp4</t>
+          <t>./stimuli/robot_left_4.mp4</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -877,19 +857,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+          <t>robot_right</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>robot_right_4</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>waving</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_m.mp4</t>
+          <t>./stimuli/robot_right_4.mp4</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -903,23 +893,33 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>human_right</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>human_right_2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>medial-lateral swing</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>./stimuli/obj_1.mp4</t>
+          <t>./stimuli/human_right_2_f.mp4</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>obj_1</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -929,12 +929,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>robot_right_4</t>
+          <t>human_left_4</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -947,11 +947,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_4.mp4</t>
+          <t>./stimuli/human_left_4_m.mp4</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -965,29 +965,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>control_1</t>
+          <t>robot_right_4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Landscape 2</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/robot_right_4.mp4</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1001,29 +1001,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>robot_right_4</t>
+          <t>control_1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>Landscape 2</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_4.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1037,29 +1037,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>robot_left_2</t>
+          <t>human_right_0</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_2.mp4</t>
+          <t>./stimuli/human_right_0_f.mp4</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1073,29 +1073,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>human_left_3</t>
+          <t>human_right_1</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_f.mp4</t>
+          <t>./stimuli/human_right_1_m.mp4</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1109,29 +1109,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>robot_left_0</t>
+          <t>human_left_2</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_0.mp4</t>
+          <t>./stimuli/human_left_2_m.mp4</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1145,29 +1145,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>control_1</t>
+          <t>human_left_3</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Landscape 2</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/human_left_3_m.mp4</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1181,29 +1181,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>robot_right_1</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_1.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1222,24 +1222,24 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>human_right_3</t>
+          <t>human_right_0</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_3_f.mp4</t>
+          <t>./stimuli/human_right_0_m.mp4</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1253,29 +1253,19 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>robot_left</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>robot_left_3</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>overhead arm raise</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_3.mp4</t>
+          <t>./stimuli/human_left_3_m.mp4</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1289,12 +1279,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>human_left_0</t>
+          <t>human_right_0</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1307,11 +1297,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_0_f.mp4</t>
+          <t>./stimuli/human_right_0_f.mp4</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1325,29 +1315,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>human_right_0</t>
+          <t>robot_left_2</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_0_m.mp4</t>
+          <t>./stimuli/robot_left_2.mp4</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1361,12 +1351,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>robot_right_2</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -1374,16 +1364,16 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/robot_right_2.mp4</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1402,24 +1392,24 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>control_1</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Landscape 2</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1433,12 +1423,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>robot_right_0</t>
+          <t>robot_left_0</t>
         </is>
       </c>
       <c r="D29" t="n">
@@ -1451,11 +1441,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_0.mp4</t>
+          <t>./stimuli/robot_left_0.mp4</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1469,19 +1459,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+          <t>human_left</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>human_left_2</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>medial-lateral swing</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_3_f.mp4</t>
+          <t>./stimuli/human_left_2_m.mp4</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>human_left_3</t>
+          <t>robot_left_3</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1513,11 +1513,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_m.mp4</t>
+          <t>./stimuli/robot_left_3.mp4</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1531,29 +1531,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>control_1</t>
+          <t>human_right_2</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Landscape 2</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/human_right_2_m.mp4</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1567,29 +1567,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>human_right_4</t>
+          <t>robot_left_3</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_4_f.mp4</t>
+          <t>./stimuli/robot_left_3.mp4</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_m.mp4</t>
+          <t>./stimuli/human_right_2_f.mp4</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1639,23 +1639,33 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+          <t>human_right</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>human_right_2</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>medial-lateral swing</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>./stimuli/obj_3.mp4</t>
+          <t>./stimuli/human_right_2_m.mp4</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>obj_3</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1683,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>./stimuli/obj_1.mp4</t>
+          <t>./stimuli/human_right_4_f.mp4</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -1681,7 +1691,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>obj_1</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -1696,24 +1706,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>human_right_2</t>
+          <t>human_right_4</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_f.mp4</t>
+          <t>./stimuli/human_right_4_m.mp4</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1727,29 +1737,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>robot_right_0</t>
+          <t>human_left_2</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_0.mp4</t>
+          <t>./stimuli/human_left_2_f.mp4</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1763,29 +1773,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>robot_right_0</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_0.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1799,29 +1809,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>human_left</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>human_left_3</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>overhead arm raise</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_m.mp4</t>
+          <t>./stimuli/human_left_2_f.mp4</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1835,29 +1835,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>robot_left_2</t>
+          <t>robot_right_4</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_2.mp4</t>
+          <t>./stimuli/robot_right_4.mp4</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1871,19 +1871,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+          <t>human_left</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>human_left_1</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>forward-backward swing</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_2_f.mp4</t>
+          <t>./stimuli/human_left_1_f.mp4</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1893,33 +1903,33 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>2</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>human_right</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>human_right_1</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>1</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>robot_right</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>robot_right_2</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2</v>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_2.mp4</t>
+          <t>./stimuli/human_right_1_f.mp4</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1938,24 +1948,24 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>robot_right_4</t>
+          <t>robot_right_2</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_4.mp4</t>
+          <t>./stimuli/robot_right_2.mp4</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1969,29 +1979,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>human_left_3</t>
+          <t>robot_right_4</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_m.mp4</t>
+          <t>./stimuli/robot_right_4.mp4</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2005,33 +2015,23 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>robot_right</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>robot_right_2</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>medial-lateral swing</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_2.mp4</t>
+          <t>./stimuli/obj_0.mp4</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_0</t>
         </is>
       </c>
     </row>
@@ -2046,24 +2046,24 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>human_right_2</t>
+          <t>human_right_1</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_f.mp4</t>
+          <t>./stimuli/human_right_1_f.mp4</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2077,33 +2077,23 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>robot_left</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>robot_left_3</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>overhead arm raise</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_3.mp4</t>
+          <t>./stimuli/obj_1.mp4</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_1</t>
         </is>
       </c>
     </row>
@@ -2113,29 +2103,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>robot_left_3</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/robot_left_3.mp4</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2149,29 +2139,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>human_right_4</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/human_right_4_m.mp4</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2185,29 +2175,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>robot_left_0</t>
+          <t>human_left_1</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_0.mp4</t>
+          <t>./stimuli/human_left_1_m.mp4</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2221,29 +2211,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>robot_right_3</t>
+          <t>robot_left_4</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_3.mp4</t>
+          <t>./stimuli/robot_left_4.mp4</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2257,12 +2247,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>human_right_3</t>
+          <t>human_left_3</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -2275,11 +2265,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_3_m.mp4</t>
+          <t>./stimuli/human_left_3_m.mp4</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2298,24 +2288,24 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>robot_right_1</t>
+          <t>robot_right_0</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_1.mp4</t>
+          <t>./stimuli/robot_right_0.mp4</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2329,29 +2319,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>robot_left_1</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_1.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2365,29 +2355,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>robot_right_4</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_4.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2406,24 +2396,24 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>robot_right_2</t>
+          <t>robot_right_1</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_2.mp4</t>
+          <t>./stimuli/robot_right_1.mp4</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2437,23 +2427,33 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+          <t>human_right</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>human_right_3</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>overhead arm raise</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>./stimuli/obj_2.mp4</t>
+          <t>./stimuli/human_right_3_f.mp4</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>obj_2</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -2463,29 +2463,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>robot_left_2</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_2.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2499,29 +2499,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>human_right_2</t>
+          <t>robot_left_1</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_m.mp4</t>
+          <t>./stimuli/robot_left_1.mp4</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2535,12 +2535,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>robot_right_0</t>
+          <t>human_right_0</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -2553,11 +2553,11 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_0.mp4</t>
+          <t>./stimuli/human_right_0_f.mp4</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2571,19 +2571,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+          <t>robot_right</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>robot_right_2</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>medial-lateral swing</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_1_m.mp4</t>
+          <t>./stimuli/robot_right_2.mp4</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2593,33 +2603,33 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>human_left_0</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/human_left_0_m.mp4</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2633,29 +2643,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>human_left_0</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_0_m.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2669,19 +2679,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+          <t>control</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>control_1</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Landscape 2</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_m.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2695,12 +2715,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>robot_left_4</t>
+          <t>robot_right_4</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -2713,11 +2733,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_4.mp4</t>
+          <t>./stimuli/robot_right_4.mp4</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2736,24 +2756,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>human_right_3</t>
+          <t>human_right_2</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_3_m.mp4</t>
+          <t>./stimuli/human_right_2_f.mp4</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2772,24 +2792,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>robot_left_2</t>
+          <t>robot_left_4</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_2.mp4</t>
+          <t>./stimuli/robot_left_4.mp4</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2803,33 +2823,23 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>robot_right</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>robot_right_2</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>medial-lateral swing</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_2.mp4</t>
+          <t>./stimuli/obj_2.mp4</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_2</t>
         </is>
       </c>
     </row>
@@ -2839,33 +2849,23 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>robot_right</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>robot_right_4</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>4</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>waving</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_4.mp4</t>
+          <t>./stimuli/obj_2.mp4</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_2</t>
         </is>
       </c>
     </row>
@@ -2875,12 +2875,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>human_left_4</t>
+          <t>robot_left_4</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -2893,11 +2893,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_4_m.mp4</t>
+          <t>./stimuli/robot_left_4.mp4</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2911,29 +2911,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>human_right_0</t>
+          <t>robot_left_1</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_0_m.mp4</t>
+          <t>./stimuli/robot_left_1.mp4</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>./stimuli/obj_4.mp4</t>
+          <t>./stimuli/human_right_0_m.mp4</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>obj_4</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -2978,24 +2978,24 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3014,24 +3014,24 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>robot_left_3</t>
+          <t>robot_left_1</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_3.mp4</t>
+          <t>./stimuli/robot_left_1.mp4</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3045,29 +3045,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>robot_right_3</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/robot_right_3.mp4</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3117,29 +3117,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>robot_right_1</t>
+          <t>human_right_4</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_1.mp4</t>
+          <t>./stimuli/human_right_4_f.mp4</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3153,12 +3153,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>robot_left_2</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -3166,16 +3166,16 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/robot_left_2.mp4</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3189,29 +3189,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>robot_right_1</t>
+          <t>human_right_3</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_1.mp4</t>
+          <t>./stimuli/human_right_3_f.mp4</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3230,24 +3230,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>robot_right_3</t>
+          <t>robot_right_0</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_3.mp4</t>
+          <t>./stimuli/robot_right_0.mp4</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3261,29 +3261,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>robot_right_1</t>
+          <t>robot_left_4</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_1.mp4</t>
+          <t>./stimuli/robot_left_4.mp4</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3297,29 +3297,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>human_left_0</t>
+          <t>human_right_1</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_0_f.mp4</t>
+          <t>./stimuli/human_right_1_m.mp4</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3333,12 +3333,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>robot_right_2</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -3346,16 +3346,16 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_2.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3369,29 +3369,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>control_1</t>
+          <t>robot_right_3</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Landscape 2</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/robot_right_3.mp4</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_0_f.mp4</t>
+          <t>./stimuli/human_left_0_m.mp4</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -3441,19 +3441,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+          <t>robot_left</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>robot_left_0</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>air punching</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_0_f.mp4</t>
+          <t>./stimuli/robot_left_0.mp4</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3467,29 +3477,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>human_left_3</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/human_left_3_f.mp4</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3503,29 +3513,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>human_left_4</t>
+          <t>control_1</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>Landscape 2</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_4_m.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3539,12 +3549,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>robot_left_0</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3552,16 +3562,16 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/robot_left_0.mp4</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3575,33 +3585,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>human_left</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>human_left_2</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>2</v>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>medial-lateral swing</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_2_f.mp4</t>
+          <t>./stimuli/obj_1.mp4</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_1</t>
         </is>
       </c>
     </row>
@@ -3611,29 +3611,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>human_right</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>human_right_0</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>air punching</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_0_f.mp4</t>
+          <t>./stimuli/human_left_2_f.mp4</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3647,23 +3637,33 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+          <t>human_left</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>human_left_0</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>air punching</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>./stimuli/obj_0.mp4</t>
+          <t>./stimuli/human_left_0_m.mp4</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>obj_0</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -3673,29 +3673,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>human_left_4</t>
+          <t>human_right_3</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_4_m.mp4</t>
+          <t>./stimuli/human_right_3_m.mp4</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3709,12 +3709,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>human_left_1</t>
+          <t>robot_left_1</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -3727,11 +3727,11 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_1_f.mp4</t>
+          <t>./stimuli/robot_left_1.mp4</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3745,23 +3745,33 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+          <t>robot_left</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>robot_left_3</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>3</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>overhead arm raise</t>
+        </is>
+      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>./stimuli/obj_3.mp4</t>
+          <t>./stimuli/robot_left_3.mp4</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>obj_3</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3799,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_4_m.mp4</t>
+          <t>./stimuli/human_right_4_f.mp4</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -3807,29 +3817,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>robot_right_4</t>
+          <t>robot_left_1</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_4.mp4</t>
+          <t>./stimuli/robot_left_1.mp4</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3879,29 +3889,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>human_left_4</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_4_f.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3915,29 +3925,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>human_left_2</t>
+          <t>robot_right_0</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_2_f.mp4</t>
+          <t>./stimuli/robot_right_0.mp4</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3951,29 +3961,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>human_right_2</t>
+          <t>human_left_0</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_m.mp4</t>
+          <t>./stimuli/human_left_0_f.mp4</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3987,12 +3997,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>robot_left_2</t>
+          <t>human_left_2</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -4005,11 +4015,11 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_2.mp4</t>
+          <t>./stimuli/human_left_2_m.mp4</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4019,33 +4029,33 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>human_right_1</t>
+          <t>robot_left_0</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_m.mp4</t>
+          <t>./stimuli/robot_left_0.mp4</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4059,29 +4069,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>control_2</t>
+          <t>robot_right_3</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Landscape 3</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>./stimuli/control_2.mp4</t>
+          <t>./stimuli/robot_right_3.mp4</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4095,12 +4105,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>human_right_3</t>
+          <t>robot_right_3</t>
         </is>
       </c>
       <c r="D106" t="n">
@@ -4113,11 +4123,11 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_3_f.mp4</t>
+          <t>./stimuli/robot_right_3.mp4</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4131,19 +4141,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+          <t>robot_right</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>robot_right_0</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>air punching</t>
+        </is>
+      </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_m.mp4</t>
+          <t>./stimuli/robot_right_0.mp4</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4157,19 +4177,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+          <t>robot_right</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>robot_right_4</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>4</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>waving</t>
+        </is>
+      </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_f.mp4</t>
+          <t>./stimuli/robot_right_4.mp4</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4183,29 +4213,29 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>human_right_4</t>
+          <t>robot_right_1</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_4_f.mp4</t>
+          <t>./stimuli/robot_right_1.mp4</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4219,29 +4249,29 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>human_right_1</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/human_right_1_m.mp4</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4255,29 +4285,29 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>human_right_3</t>
+          <t>robot_right_2</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_3_m.mp4</t>
+          <t>./stimuli/robot_right_2.mp4</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4296,24 +4326,24 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>human_right_2</t>
+          <t>human_right_3</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_f.mp4</t>
+          <t>./stimuli/human_right_3_m.mp4</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4327,29 +4357,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>robot_right</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>robot_right_2</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>2</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>medial-lateral swing</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_2.mp4</t>
+          <t>./stimuli/human_left_3_f.mp4</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4363,29 +4383,29 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>robot_left_4</t>
+          <t>robot_right_1</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_4.mp4</t>
+          <t>./stimuli/robot_right_1.mp4</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4435,19 +4455,29 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+          <t>human_left</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>human_left_3</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>overhead arm raise</t>
+        </is>
+      </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_f.mp4</t>
+          <t>./stimuli/human_left_3_f.mp4</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4461,29 +4491,29 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>human_left_1</t>
+          <t>human_right_2</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_1_m.mp4</t>
+          <t>./stimuli/human_right_2_m.mp4</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4497,29 +4527,29 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>robot_left_3</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_3.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4538,24 +4568,24 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>robot_left_0</t>
+          <t>robot_left_3</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_0.mp4</t>
+          <t>./stimuli/robot_left_3.mp4</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4569,29 +4599,29 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>human_left_1</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/human_left_1_m.mp4</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4605,29 +4635,29 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>robot_left_3</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_3.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4641,29 +4671,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>human_left</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>human_left_3</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>3</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>overhead arm raise</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_f.mp4</t>
+          <t>./stimuli/human_right_1_m.mp4</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -4677,12 +4697,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>human_right_1</t>
+          <t>control_1</t>
         </is>
       </c>
       <c r="D123" t="n">
@@ -4690,16 +4710,16 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>Landscape 2</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_f.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -4709,16 +4729,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>human_left_1</t>
+          <t>control_1</t>
         </is>
       </c>
       <c r="D124" t="n">
@@ -4726,16 +4746,16 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>Landscape 2</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_1_f.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -4745,33 +4765,33 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>robot_right_0</t>
+          <t>human_left_2</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_0.mp4</t>
+          <t>./stimuli/human_left_2_f.mp4</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -4785,29 +4805,29 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>robot_left_1</t>
+          <t>human_right_4</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_1.mp4</t>
+          <t>./stimuli/human_right_4_m.mp4</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -4821,29 +4841,29 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>control_1</t>
+          <t>robot_right_2</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Landscape 2</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/robot_right_2.mp4</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
@@ -4862,24 +4882,24 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>robot_left_4</t>
+          <t>robot_left_2</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_4.mp4</t>
+          <t>./stimuli/robot_left_2.mp4</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
@@ -4893,12 +4913,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>robot_left_0</t>
+          <t>human_right_0</t>
         </is>
       </c>
       <c r="D129" t="n">
@@ -4911,11 +4931,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_0.mp4</t>
+          <t>./stimuli/human_right_0_m.mp4</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
@@ -4929,29 +4949,29 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>robot_left_4</t>
+          <t>control_1</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>Landscape 2</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_4.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
@@ -4973,7 +4993,7 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>./stimuli/obj_4.mp4</t>
+          <t>./stimuli/obj_2.mp4</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -4981,7 +5001,7 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>obj_4</t>
+          <t>obj_2</t>
         </is>
       </c>
     </row>
@@ -4991,29 +5011,29 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>robot_left_1</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_1.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -5032,24 +5052,24 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>human_left_2</t>
+          <t>human_left_1</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_2_m.mp4</t>
+          <t>./stimuli/human_left_1_m.mp4</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
@@ -5063,12 +5083,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>robot_left_0</t>
         </is>
       </c>
       <c r="D134" t="n">
@@ -5076,16 +5096,16 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/robot_left_0.mp4</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -5099,29 +5119,29 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>human_right_1</t>
+          <t>robot_right_0</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_m.mp4</t>
+          <t>./stimuli/robot_right_0.mp4</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5135,29 +5155,29 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>robot_left_0</t>
+          <t>human_left_1</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_0.mp4</t>
+          <t>./stimuli/human_left_1_f.mp4</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5171,29 +5191,29 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>human_left_0</t>
+          <t>robot_right_1</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_0_m.mp4</t>
+          <t>./stimuli/robot_right_1.mp4</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -5215,7 +5235,7 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>./stimuli/obj_3.mp4</t>
+          <t>./stimuli/obj_4.mp4</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -5223,7 +5243,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>obj_3</t>
+          <t>obj_4</t>
         </is>
       </c>
     </row>
@@ -5233,29 +5253,29 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>human_right_4</t>
+          <t>human_left_0</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_4_m.mp4</t>
+          <t>./stimuli/human_left_0_f.mp4</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5269,12 +5289,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>robot_right_3</t>
+          <t>human_right_3</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -5287,11 +5307,11 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_3.mp4</t>
+          <t>./stimuli/human_right_3_m.mp4</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -5305,29 +5325,19 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>human_left</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>human_left_1</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>forward-backward swing</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_1_f.mp4</t>
+          <t>./stimuli/human_right_3_f.mp4</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -5341,29 +5351,29 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>human_left_4</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/human_left_4_f.mp4</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5382,24 +5392,24 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>robot_right_0</t>
+          <t>robot_right_1</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_0.mp4</t>
+          <t>./stimuli/robot_right_1.mp4</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5413,29 +5423,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>robot_left_1</t>
+          <t>human_left_4</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_1.mp4</t>
+          <t>./stimuli/human_left_4_m.mp4</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5445,33 +5455,33 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_left</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>human_left_3</t>
+          <t>robot_left_0</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>overhead arm raise</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_3_f.mp4</t>
+          <t>./stimuli/robot_left_0.mp4</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -5485,29 +5495,29 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>robot_left_1</t>
+          <t>robot_right_2</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_1.mp4</t>
+          <t>./stimuli/robot_right_2.mp4</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5521,29 +5531,29 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>human_right_1</t>
+          <t>human_left_4</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_f.mp4</t>
+          <t>./stimuli/human_left_4_m.mp4</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -5557,29 +5567,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>robot_right</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>robot_right_1</t>
+          <t>human_right_0</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>./stimuli/robot_right_1.mp4</t>
+          <t>./stimuli/human_right_0_m.mp4</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5593,19 +5603,29 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+          <t>human_right</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>human_right_4</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>4</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>waving</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_2_f.mp4</t>
+          <t>./stimuli/human_right_4_f.mp4</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5619,29 +5639,29 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>human_right_1</t>
+          <t>human_left_3</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_m.mp4</t>
+          <t>./stimuli/human_left_3_f.mp4</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5655,23 +5675,33 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+          <t>robot_right</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>robot_right_0</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>air punching</t>
+        </is>
+      </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>./stimuli/obj_4.mp4</t>
+          <t>./stimuli/robot_right_0.mp4</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>obj_4</t>
+          <t>none</t>
         </is>
       </c>
     </row>
@@ -5681,29 +5711,29 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>robot_left_0</t>
+          <t>human_right_1</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_0.mp4</t>
+          <t>./stimuli/human_right_1_f.mp4</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5717,29 +5747,29 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>human_left_2</t>
+          <t>control_0</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>Landscape 1</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_2_m.mp4</t>
+          <t>./stimuli/control_0.mp4</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -5753,29 +5783,29 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>robot_left_1</t>
+          <t>robot_right_3</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_1.mp4</t>
+          <t>./stimuli/robot_right_3.mp4</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5789,33 +5819,23 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>human_left</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>human_left_4</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>4</v>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>waving</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_4_f.mp4</t>
+          <t>./stimuli/obj_3.mp4</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>none</t>
+          <t>obj_3</t>
         </is>
       </c>
     </row>
@@ -5825,29 +5845,19 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>human_left</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>human_left_1</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>forward-backward swing</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_1_m.mp4</t>
+          <t>./stimuli/human_left_2_f.mp4</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5866,24 +5876,24 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>robot_left_2</t>
+          <t>robot_left_4</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>medial-lateral swing</t>
+          <t>waving</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_2.mp4</t>
+          <t>./stimuli/robot_left_4.mp4</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5897,29 +5907,29 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>human_left_0</t>
+          <t>control_2</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>air punching</t>
+          <t>Landscape 3</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_0_m.mp4</t>
+          <t>./stimuli/control_2.mp4</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5938,24 +5948,24 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>robot_left_4</t>
+          <t>robot_left_2</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>medial-lateral swing</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_4.mp4</t>
+          <t>./stimuli/robot_left_2.mp4</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5969,12 +5979,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>human_right</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>human_right_1</t>
+          <t>control_1</t>
         </is>
       </c>
       <c r="D160" t="n">
@@ -5982,16 +5992,16 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>forward-backward swing</t>
+          <t>Landscape 2</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>./stimuli/human_right_1_f.mp4</t>
+          <t>./stimuli/control_1.mp4</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -6005,29 +6015,29 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_right</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>control_1</t>
+          <t>human_right_3</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Landscape 2</t>
+          <t>overhead arm raise</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/human_right_3_f.mp4</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -6041,29 +6051,29 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>robot_left</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>robot_left_4</t>
+          <t>human_left_0</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>waving</t>
+          <t>air punching</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>./stimuli/robot_left_4.mp4</t>
+          <t>./stimuli/human_left_0_f.mp4</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -6077,29 +6087,29 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>control</t>
+          <t>human_left</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>control_0</t>
+          <t>human_left_1</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Landscape 1</t>
+          <t>forward-backward swing</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>./stimuli/control_0.mp4</t>
+          <t>./stimuli/human_left_1_f.mp4</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -6113,29 +6123,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>control</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>control_1</t>
-        </is>
-      </c>
-      <c r="D164" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>Landscape 2</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>./stimuli/control_1.mp4</t>
+          <t>./stimuli/human_left_4_m.mp4</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -6149,12 +6149,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>human_left</t>
+          <t>robot_right</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>human_left_1</t>
+          <t>robot_right_1</t>
         </is>
       </c>
       <c r="D165" t="n">
@@ -6167,11 +6167,11 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>./stimuli/human_left_1_m.mp4</t>
+          <t>./stimuli/robot_right_1.mp4</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
